--- a/DZmda_test_input_1s_uncertainty.xlsx
+++ b/DZmda_test_input_1s_uncertainty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kurtC06868/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kurtC06868/Documents/MATLAB/DZmda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07E24E7D-8A5C-D04C-896D-CBEAD4E23DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FB0B92-5BC1-E044-850B-B1EBC818DDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{2944DA73-417C-AD47-8BAC-872269E6039B}"/>
+    <workbookView xWindow="6840" yWindow="2440" windowWidth="27640" windowHeight="16940" xr2:uid="{2944DA73-417C-AD47-8BAC-872269E6039B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>rrttr</t>
+  </si>
+  <si>
+    <t>trtr</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,2523 +393,2531 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1A7FE0-70E4-4947-AB1A-593C5F841FB4}">
-  <dimension ref="A1:B314"/>
+  <dimension ref="A1:B315"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>133.62656953041423</v>
-      </c>
-      <c r="B1">
-        <v>1.2317832693595534</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>133.6549167523882</v>
+        <v>133.62656953041423</v>
       </c>
       <c r="B2">
-        <v>1.2609529181921744</v>
+        <v>1.2317832693595534</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>134.44636739150806</v>
+        <v>133.6549167523882</v>
       </c>
       <c r="B3">
-        <v>0.91318129101045997</v>
+        <v>1.2609529181921744</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>134.58952418303315</v>
+        <v>134.44636739150806</v>
       </c>
       <c r="B4">
-        <v>0.95140905709102697</v>
+        <v>0.91318129101045997</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>134.23726896064579</v>
+        <v>134.58952418303315</v>
       </c>
       <c r="B5">
-        <v>1.1596636539983507</v>
+        <v>0.95140905709102697</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>133.82893433463565</v>
+        <v>134.23726896064579</v>
       </c>
       <c r="B6">
-        <v>1.3882919585567777</v>
+        <v>1.1596636539983507</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>133.78357109103396</v>
+        <v>133.82893433463565</v>
       </c>
       <c r="B7">
-        <v>1.4596205251549321</v>
+        <v>1.3882919585567777</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>134.57479878125818</v>
+        <v>133.78357109103396</v>
       </c>
       <c r="B8">
-        <v>1.1284552401353238</v>
+        <v>1.4596205251549321</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>134.55420267184027</v>
+        <v>134.57479878125818</v>
       </c>
       <c r="B9">
-        <v>1.1627178263095175</v>
+        <v>1.1284552401353238</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>134.87717147670574</v>
+        <v>134.55420267184027</v>
       </c>
       <c r="B10">
-        <v>1.0561586242480985</v>
+        <v>1.1627178263095175</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>134.63121263154665</v>
+        <v>134.87717147670574</v>
       </c>
       <c r="B11">
-        <v>1.1974584360172571</v>
+        <v>1.0561586242480985</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>134.77845525177298</v>
+        <v>134.63121263154665</v>
       </c>
       <c r="B12">
-        <v>1.137442828934951</v>
+        <v>1.1974584360172571</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>135.45460892064855</v>
+        <v>134.77845525177298</v>
       </c>
       <c r="B13">
-        <v>0.85047323272709718</v>
+        <v>1.137442828934951</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>134.81537018986049</v>
+        <v>135.45460892064855</v>
       </c>
       <c r="B14">
-        <v>1.1763098095079982</v>
+        <v>0.85047323272709718</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>134.6769093865276</v>
+        <v>134.81537018986049</v>
       </c>
       <c r="B15">
-        <v>1.248522721484207</v>
+        <v>1.1763098095079982</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>135.03148632826895</v>
+        <v>134.6769093865276</v>
       </c>
       <c r="B16">
-        <v>1.1202448878659652</v>
+        <v>1.248522721484207</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>134.77092557803988</v>
+        <v>135.03148632826895</v>
       </c>
       <c r="B17">
-        <v>1.2724758973190262</v>
+        <v>1.1202448878659652</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>134.76166856359515</v>
+        <v>134.77092557803988</v>
       </c>
       <c r="B18">
-        <v>1.378488208658851</v>
+        <v>1.2724758973190262</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>134.66156854694449</v>
+        <v>134.76166856359515</v>
       </c>
       <c r="B19">
-        <v>1.4297686540477201</v>
+        <v>1.378488208658851</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>135.25697169159085</v>
+        <v>134.66156854694449</v>
       </c>
       <c r="B20">
-        <v>1.2012554403410576</v>
+        <v>1.4297686540477201</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>135.37867487075536</v>
+        <v>135.25697169159085</v>
       </c>
       <c r="B21">
-        <v>1.2105600004621238</v>
+        <v>1.2012554403410576</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>134.81094593188104</v>
+        <v>135.37867487075536</v>
       </c>
       <c r="B22">
-        <v>1.4985763479565435</v>
+        <v>1.2105600004621238</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>135.05586890272923</v>
+        <v>134.81094593188104</v>
       </c>
       <c r="B23">
-        <v>1.3783283134835216</v>
+        <v>1.4985763479565435</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>135.23213211964958</v>
+        <v>135.05586890272923</v>
       </c>
       <c r="B24">
-        <v>1.304616963703026</v>
+        <v>1.3783283134835216</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>136.10644392443757</v>
+        <v>135.23213211964958</v>
       </c>
       <c r="B25">
-        <v>0.91218245211256033</v>
+        <v>1.304616963703026</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>135.35350321067259</v>
+        <v>136.10644392443757</v>
       </c>
       <c r="B26">
-        <v>1.3875953280839042</v>
+        <v>0.91218245211256033</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>135.52105002830268</v>
+        <v>135.35350321067259</v>
       </c>
       <c r="B27">
-        <v>1.3103658491416752</v>
+        <v>1.3875953280839042</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>136.06797721304241</v>
+        <v>135.52105002830268</v>
       </c>
       <c r="B28">
-        <v>1.1012452995379789</v>
+        <v>1.3103658491416752</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>135.805227208975</v>
+        <v>136.06797721304241</v>
       </c>
       <c r="B29">
-        <v>1.2472838025983748</v>
+        <v>1.1012452995379789</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>135.52999189022592</v>
+        <v>135.805227208975</v>
       </c>
       <c r="B30">
-        <v>1.4073582506415931</v>
+        <v>1.2472838025983748</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>136.12704349639256</v>
+        <v>135.52999189022592</v>
       </c>
       <c r="B31">
-        <v>1.116743556859646</v>
+        <v>1.4073582506415931</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>136.02983926793286</v>
+        <v>136.12704349639256</v>
       </c>
       <c r="B32">
-        <v>1.2171364818861861</v>
+        <v>1.116743556859646</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>135.32838824516205</v>
+        <v>136.02983926793286</v>
       </c>
       <c r="B33">
-        <v>1.6041060537789491</v>
+        <v>1.2171364818861861</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>135.51789866112532</v>
+        <v>135.32838824516205</v>
       </c>
       <c r="B34">
-        <v>1.5252857606160148</v>
+        <v>1.6041060537789491</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>136.91857197671391</v>
+        <v>135.51789866112532</v>
       </c>
       <c r="B35">
-        <v>0.88970229243039967</v>
+        <v>1.5252857606160148</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>135.96175985463231</v>
+        <v>136.91857197671391</v>
       </c>
       <c r="B36">
-        <v>1.4569659789089968</v>
+        <v>0.88970229243039967</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>136.08133367732549</v>
+        <v>135.96175985463231</v>
       </c>
       <c r="B37">
-        <v>1.4004558828697498</v>
+        <v>1.4569659789089968</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>136.45168566232798</v>
+        <v>136.08133367732549</v>
       </c>
       <c r="B38">
-        <v>1.2542886419551422</v>
+        <v>1.4004558828697498</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>136.34853918062259</v>
+        <v>136.45168566232798</v>
       </c>
       <c r="B39">
-        <v>1.3587465675673371</v>
+        <v>1.2542886419551422</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>136.26001447347997</v>
+        <v>136.34853918062259</v>
       </c>
       <c r="B40">
-        <v>1.4148624336854283</v>
+        <v>1.3587465675673371</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>135.98257044360679</v>
+        <v>136.26001447347997</v>
       </c>
       <c r="B41">
-        <v>1.5550597760824445</v>
+        <v>1.4148624336854283</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>136.69437075754493</v>
+        <v>135.98257044360679</v>
       </c>
       <c r="B42">
-        <v>1.2295818146355941</v>
+        <v>1.5550597760824445</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>136.63538690681193</v>
+        <v>136.69437075754493</v>
       </c>
       <c r="B43">
-        <v>1.3004339316178601</v>
+        <v>1.2295818146355941</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>136.08867331520614</v>
+        <v>136.63538690681193</v>
       </c>
       <c r="B44">
-        <v>1.6206744532573936</v>
+        <v>1.3004339316178601</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>136.80052405750138</v>
+        <v>136.08867331520614</v>
       </c>
       <c r="B45">
-        <v>1.3070320154046442</v>
+        <v>1.6206744532573936</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>136.57104236691396</v>
+        <v>136.80052405750138</v>
       </c>
       <c r="B46">
-        <v>1.5009955045660917</v>
+        <v>1.3070320154046442</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>136.15512201965385</v>
+        <v>136.57104236691396</v>
       </c>
       <c r="B47">
-        <v>1.720271406085061</v>
+        <v>1.5009955045660917</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>136.99280942538797</v>
+        <v>136.15512201965385</v>
       </c>
       <c r="B48">
-        <v>1.3804034000673369</v>
+        <v>1.720271406085061</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>137.5102620459605</v>
+        <v>136.99280942538797</v>
       </c>
       <c r="B49">
-        <v>1.1636780964229985</v>
+        <v>1.3804034000673369</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>137.01610801042094</v>
+        <v>137.5102620459605</v>
       </c>
       <c r="B50">
-        <v>1.4178572932674598</v>
+        <v>1.1636780964229985</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>137.99423176591384</v>
+        <v>137.01610801042094</v>
       </c>
       <c r="B51">
-        <v>0.94773516130484836</v>
+        <v>1.4178572932674598</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>137.67894606427956</v>
+        <v>137.99423176591384</v>
       </c>
       <c r="B52">
-        <v>1.1383715023423093</v>
+        <v>0.94773516130484836</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>137.91509287482225</v>
+        <v>137.67894606427956</v>
       </c>
       <c r="B53">
-        <v>1.0398653134710258</v>
+        <v>1.1383715023423093</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>137.88621462144852</v>
+        <v>137.91509287482225</v>
       </c>
       <c r="B54">
-        <v>1.1136706539746939</v>
+        <v>1.0398653134710258</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>136.96185071662873</v>
+        <v>137.88621462144852</v>
       </c>
       <c r="B55">
-        <v>1.6193683326499837</v>
+        <v>1.1136706539746939</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>138.02447312045811</v>
+        <v>136.96185071662873</v>
       </c>
       <c r="B56">
-        <v>1.1433340966680419</v>
+        <v>1.6193683326499837</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>137.43483284032533</v>
+        <v>138.02447312045811</v>
       </c>
       <c r="B57">
-        <v>1.455885385128866</v>
+        <v>1.1433340966680419</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>137.8987272912116</v>
+        <v>137.43483284032533</v>
       </c>
       <c r="B58">
-        <v>1.3236336968050892</v>
+        <v>1.455885385128866</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>137.63419520423059</v>
+        <v>137.8987272912116</v>
       </c>
       <c r="B59">
-        <v>1.4749216916183059</v>
+        <v>1.3236336968050892</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>137.97610655371884</v>
+        <v>137.63419520423059</v>
       </c>
       <c r="B60">
-        <v>1.3270556902104147</v>
+        <v>1.4749216916183059</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>137.63355496515413</v>
+        <v>137.97610655371884</v>
       </c>
       <c r="B61">
-        <v>1.5001563931952404</v>
+        <v>1.3270556902104147</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>137.49970526488372</v>
+        <v>137.63355496515413</v>
       </c>
       <c r="B62">
-        <v>1.5859369371656271</v>
+        <v>1.5001563931952404</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>136.06033841910062</v>
+        <v>137.49970526488372</v>
       </c>
       <c r="B63">
-        <v>2.3314377824049046</v>
+        <v>1.5859369371656271</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>138.5512850157555</v>
+        <v>136.06033841910062</v>
       </c>
       <c r="B64">
-        <v>1.1068574953019947</v>
+        <v>2.3314377824049046</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>138.29905814524645</v>
+        <v>138.5512850157555</v>
       </c>
       <c r="B65">
-        <v>1.3202389851368395</v>
+        <v>1.1068574953019947</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>138.44388885786174</v>
+        <v>138.29905814524645</v>
       </c>
       <c r="B66">
-        <v>1.2788578729876861</v>
+        <v>1.3202389851368395</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>137.51149928442089</v>
+        <v>138.44388885786174</v>
       </c>
       <c r="B67">
-        <v>1.7783704180012023</v>
+        <v>1.2788578729876861</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>138.29387315385918</v>
+        <v>137.51149928442089</v>
       </c>
       <c r="B68">
-        <v>1.4025267239447459</v>
+        <v>1.7783704180012023</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>138.78217760563956</v>
+        <v>138.29387315385918</v>
       </c>
       <c r="B69">
-        <v>1.2152301138948616</v>
+        <v>1.4025267239447459</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>138.61027386590229</v>
+        <v>138.78217760563956</v>
       </c>
       <c r="B70">
-        <v>1.3441324619783757</v>
+        <v>1.2152301138948616</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>136.80212847376242</v>
+        <v>138.61027386590229</v>
       </c>
       <c r="B71">
-        <v>2.2876227341981661</v>
+        <v>1.3441324619783757</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>137.75194601531427</v>
+        <v>136.80212847376242</v>
       </c>
       <c r="B72">
-        <v>1.8533889374201067</v>
+        <v>2.2876227341981661</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>138.5601333767994</v>
+        <v>137.75194601531427</v>
       </c>
       <c r="B73">
-        <v>1.4780369908339281</v>
+        <v>1.8533889374201067</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>138.68088978690594</v>
+        <v>138.5601333767994</v>
       </c>
       <c r="B74">
-        <v>1.4473576746646586</v>
+        <v>1.4780369908339281</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>138.81428223515536</v>
+        <v>138.68088978690594</v>
       </c>
       <c r="B75">
-        <v>1.4878463224295615</v>
+        <v>1.4473576746646586</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>138.44947984216395</v>
+        <v>138.81428223515536</v>
       </c>
       <c r="B76">
-        <v>1.6966297480073251</v>
+        <v>1.4878463224295615</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>138.80448854963123</v>
+        <v>138.44947984216395</v>
       </c>
       <c r="B77">
-        <v>1.5853441694746095</v>
+        <v>1.6966297480073251</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>139.4660338801055</v>
+        <v>138.80448854963123</v>
       </c>
       <c r="B78">
-        <v>1.2592790391845625</v>
+        <v>1.5853441694746095</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>140.07772801315909</v>
+        <v>139.4660338801055</v>
       </c>
       <c r="B79">
-        <v>0.955906393203378</v>
+        <v>1.2592790391845625</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>139.29225213276024</v>
+        <v>140.07772801315909</v>
       </c>
       <c r="B80">
-        <v>1.3647354409432069</v>
+        <v>0.955906393203378</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>139.17740800715364</v>
+        <v>139.29225213276024</v>
       </c>
       <c r="B81">
-        <v>1.451299671099946</v>
+        <v>1.3647354409432069</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>139.98245424542498</v>
+        <v>139.17740800715364</v>
       </c>
       <c r="B82">
-        <v>1.1523206859473731</v>
+        <v>1.451299671099946</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>139.29228027812434</v>
+        <v>139.98245424542498</v>
       </c>
       <c r="B83">
-        <v>1.5302360700745652</v>
+        <v>1.1523206859473731</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>139.08307339752034</v>
+        <v>139.29228027812434</v>
       </c>
       <c r="B84">
-        <v>1.6653323565642069</v>
+        <v>1.5302360700745652</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>139.04506016652428</v>
+        <v>139.08307339752034</v>
       </c>
       <c r="B85">
-        <v>1.7431299501659936</v>
+        <v>1.6653323565642069</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>140.25688674025059</v>
+        <v>139.04506016652428</v>
       </c>
       <c r="B86">
-        <v>1.1485688811541621</v>
+        <v>1.7431299501659936</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>139.79933679100927</v>
+        <v>140.25688674025059</v>
       </c>
       <c r="B87">
-        <v>1.4489635211068475</v>
+        <v>1.1485688811541621</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>139.16580399663727</v>
+        <v>139.79933679100927</v>
       </c>
       <c r="B88">
-        <v>1.9311625677699027</v>
+        <v>1.4489635211068475</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>140.70387108338204</v>
+        <v>139.16580399663727</v>
       </c>
       <c r="B89">
-        <v>1.2918808819953682</v>
+        <v>1.9311625677699027</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>141.26941393595166</v>
+        <v>140.70387108338204</v>
       </c>
       <c r="B90">
-        <v>1.4254732229419886</v>
+        <v>1.2918808819953682</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>141.289767898592</v>
+        <v>141.26941393595166</v>
       </c>
       <c r="B91">
-        <v>1.5952519654900641</v>
+        <v>1.4254732229419886</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>140.36257253489273</v>
+        <v>141.289767898592</v>
       </c>
       <c r="B92">
-        <v>2.3166936729608381</v>
+        <v>1.5952519654900641</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>142.22275114061964</v>
+        <v>140.36257253489273</v>
       </c>
       <c r="B93">
-        <v>1.4871328841420137</v>
+        <v>2.3166936729608381</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>142.9608520932637</v>
+        <v>142.22275114061964</v>
       </c>
       <c r="B94">
-        <v>1.339625928305793</v>
+        <v>1.4871328841420137</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>142.83819908007553</v>
+        <v>142.9608520932637</v>
       </c>
       <c r="B95">
-        <v>1.5543954649935046</v>
+        <v>1.339625928305793</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>144.09771054065686</v>
+        <v>142.83819908007553</v>
       </c>
       <c r="B96">
-        <v>1.1955913641394034</v>
+        <v>1.5543954649935046</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>143.81632961592376</v>
+        <v>144.09771054065686</v>
       </c>
       <c r="B97">
-        <v>1.5411801574119863</v>
+        <v>1.1955913641394034</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>144.75423466494249</v>
+        <v>143.81632961592376</v>
       </c>
       <c r="B98">
-        <v>1.3013572786414613</v>
+        <v>1.5411801574119863</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>145.05926877026641</v>
+        <v>144.75423466494249</v>
       </c>
       <c r="B99">
-        <v>1.4320115350837455</v>
+        <v>1.3013572786414613</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>146.30818293828284</v>
+        <v>145.05926877026641</v>
       </c>
       <c r="B100">
-        <v>1.2569334324213202</v>
+        <v>1.4320115350837455</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>146.09214624592033</v>
+        <v>146.30818293828284</v>
       </c>
       <c r="B101">
-        <v>1.4650103536092587</v>
+        <v>1.2569334324213202</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>146.67408359032254</v>
+        <v>146.09214624592033</v>
       </c>
       <c r="B102">
-        <v>1.2698511681296907</v>
+        <v>1.4650103536092587</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>147.24380133159605</v>
+        <v>146.67408359032254</v>
       </c>
       <c r="B103">
-        <v>1.0124587746073956</v>
+        <v>1.2698511681296907</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>147.12701551071558</v>
+        <v>147.24380133159605</v>
       </c>
       <c r="B104">
-        <v>1.0945863424501994</v>
+        <v>1.0124587746073956</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>147.26374355807201</v>
+        <v>147.12701551071558</v>
       </c>
       <c r="B105">
-        <v>1.0608954403311088</v>
+        <v>1.0945863424501994</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>147.23577859288326</v>
+        <v>147.26374355807201</v>
       </c>
       <c r="B106">
-        <v>1.0929799409430956</v>
+        <v>1.0608954403311088</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>146.91132597333194</v>
+        <v>147.23577859288326</v>
       </c>
       <c r="B107">
-        <v>1.2771118995961359</v>
+        <v>1.0929799409430956</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>147.52710804478022</v>
+        <v>146.91132597333194</v>
       </c>
       <c r="B108">
-        <v>1.1514811396447016</v>
+        <v>1.2771118995961359</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>148.21630645033065</v>
+        <v>147.52710804478022</v>
       </c>
       <c r="B109">
-        <v>1.1054688410077205</v>
+        <v>1.1514811396447016</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>148.4103301691793</v>
+        <v>148.21630645033065</v>
       </c>
       <c r="B110">
-        <v>1.0161008438987125</v>
+        <v>1.1054688410077205</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>148.25335612293162</v>
+        <v>148.4103301691793</v>
       </c>
       <c r="B111">
-        <v>1.1254122257046077</v>
+        <v>1.0161008438987125</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>148.21249922251559</v>
+        <v>148.25335612293162</v>
       </c>
       <c r="B112">
-        <v>1.2772476578325893</v>
+        <v>1.1254122257046077</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>148.19661639432715</v>
+        <v>148.21249922251559</v>
       </c>
       <c r="B113">
-        <v>1.4723699607741167</v>
+        <v>1.2772476578325893</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>149.41419550381576</v>
+        <v>148.19661639432715</v>
       </c>
       <c r="B114">
-        <v>0.88294969578318216</v>
+        <v>1.4723699607741167</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>149.09139719905326</v>
+        <v>149.41419550381576</v>
       </c>
       <c r="B115">
-        <v>1.0509722402783126</v>
+        <v>0.88294969578318216</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>149.00754156466465</v>
+        <v>149.09139719905326</v>
       </c>
       <c r="B116">
-        <v>1.1291219826199921</v>
+        <v>1.0509722402783126</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>147.66934624978495</v>
+        <v>149.00754156466465</v>
       </c>
       <c r="B117">
-        <v>1.8875927275849875</v>
+        <v>1.1291219826199921</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>148.86422668529687</v>
+        <v>147.66934624978495</v>
       </c>
       <c r="B118">
-        <v>1.354937557326096</v>
+        <v>1.8875927275849875</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>149.11426245013607</v>
+        <v>148.86422668529687</v>
       </c>
       <c r="B119">
-        <v>1.3378058196838651</v>
+        <v>1.354937557326096</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>148.56336053656676</v>
+        <v>149.11426245013607</v>
       </c>
       <c r="B120">
-        <v>1.8347162000017505</v>
+        <v>1.3378058196838651</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>150.07125742421599</v>
+        <v>148.56336053656676</v>
       </c>
       <c r="B121">
-        <v>1.098740545994616</v>
+        <v>1.8347162000017505</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>149.29885279804881</v>
+        <v>150.07125742421599</v>
       </c>
       <c r="B122">
-        <v>1.4856017843802078</v>
+        <v>1.098740545994616</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>149.45379659178525</v>
+        <v>149.29885279804881</v>
       </c>
       <c r="B123">
-        <v>1.4219376396633692</v>
+        <v>1.4856017843802078</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>149.55505915735679</v>
+        <v>149.45379659178525</v>
       </c>
       <c r="B124">
-        <v>1.3887971078673331</v>
+        <v>1.4219376396633692</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>148.60942280192785</v>
+        <v>149.55505915735679</v>
       </c>
       <c r="B125">
-        <v>1.9382206379346485</v>
+        <v>1.3887971078673331</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>149.804328565779</v>
+        <v>148.60942280192785</v>
       </c>
       <c r="B126">
-        <v>1.3474230883757343</v>
+        <v>1.9382206379346485</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>150.17268596344684</v>
+        <v>149.804328565779</v>
       </c>
       <c r="B127">
-        <v>1.1911444357184422</v>
+        <v>1.3474230883757343</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>149.30556177227297</v>
+        <v>150.17268596344684</v>
       </c>
       <c r="B128">
-        <v>1.6642697575718444</v>
+        <v>1.1911444357184422</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>149.85194036004191</v>
+        <v>149.30556177227297</v>
       </c>
       <c r="B129">
-        <v>1.3934512913806287</v>
+        <v>1.6642697575718444</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>150.09507229576255</v>
+        <v>149.85194036004191</v>
       </c>
       <c r="B130">
-        <v>1.3083066424502903</v>
+        <v>1.3934512913806287</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>150.33867763987396</v>
+        <v>150.09507229576255</v>
       </c>
       <c r="B131">
-        <v>1.2409971233641244</v>
+        <v>1.3083066424502903</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>150.71534968011787</v>
+        <v>150.33867763987396</v>
       </c>
       <c r="B132">
-        <v>1.07192218631792</v>
+        <v>1.2409971233641244</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>149.87540457324855</v>
+        <v>150.71534968011787</v>
       </c>
       <c r="B133">
-        <v>1.5652577676680153</v>
+        <v>1.07192218631792</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>149.85901896869768</v>
+        <v>149.87540457324855</v>
       </c>
       <c r="B134">
-        <v>1.5778523635402593</v>
+        <v>1.5652577676680153</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>149.5198175522498</v>
+        <v>149.85901896869768</v>
       </c>
       <c r="B135">
-        <v>1.7680509152315551</v>
+        <v>1.5778523635402593</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>150.85781153224875</v>
+        <v>149.5198175522498</v>
       </c>
       <c r="B136">
-        <v>1.1193580880173073</v>
+        <v>1.7680509152315551</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>150.46227221333373</v>
+        <v>150.85781153224875</v>
       </c>
       <c r="B137">
-        <v>1.3179118067866256</v>
+        <v>1.1193580880173073</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>150.43625180779054</v>
+        <v>150.46227221333373</v>
       </c>
       <c r="B138">
-        <v>1.3677052357623296</v>
+        <v>1.3179118067866256</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>150.60722468958198</v>
+        <v>150.43625180779054</v>
       </c>
       <c r="B139">
-        <v>1.286109051412069</v>
+        <v>1.3677052357623296</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>150.42978008734283</v>
+        <v>150.60722468958198</v>
       </c>
       <c r="B140">
-        <v>1.3878511037079022</v>
+        <v>1.286109051412069</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>150.45929388138507</v>
+        <v>150.42978008734283</v>
       </c>
       <c r="B141">
-        <v>1.4054400427679212</v>
+        <v>1.3878511037079022</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>150.69413136775282</v>
+        <v>150.45929388138507</v>
       </c>
       <c r="B142">
-        <v>1.3466563203789406</v>
+        <v>1.4054400427679212</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>151.59753869319417</v>
+        <v>150.69413136775282</v>
       </c>
       <c r="B143">
-        <v>1.0703816526936407</v>
+        <v>1.3466563203789406</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>151.12211803835288</v>
+        <v>151.59753869319417</v>
       </c>
       <c r="B144">
-        <v>1.3431020020377531</v>
+        <v>1.0703816526936407</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>151.15735630817707</v>
+        <v>151.12211803835288</v>
       </c>
       <c r="B145">
-        <v>1.3280152914261691</v>
+        <v>1.3431020020377531</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>150.77198041343831</v>
+        <v>151.15735630817707</v>
       </c>
       <c r="B146">
-        <v>1.5357424415756356</v>
+        <v>1.3280152914261691</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>150.27493118569876</v>
+        <v>150.77198041343831</v>
       </c>
       <c r="B147">
-        <v>1.873371033690745</v>
+        <v>1.5357424415756356</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>151.7128514506629</v>
+        <v>150.27493118569876</v>
       </c>
       <c r="B148">
-        <v>1.2912892151499307</v>
+        <v>1.873371033690745</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>151.35786575010397</v>
+        <v>151.7128514506629</v>
       </c>
       <c r="B149">
-        <v>1.4810969332921076</v>
+        <v>1.2912892151499307</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>150.61737823100091</v>
+        <v>151.35786575010397</v>
       </c>
       <c r="B150">
-        <v>1.89385638086992</v>
+        <v>1.4810969332921076</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>151.38131310779639</v>
+        <v>150.61737823100091</v>
       </c>
       <c r="B151">
-        <v>1.5119258044786363</v>
+        <v>1.89385638086992</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>151.53963964168634</v>
+        <v>151.38131310779639</v>
       </c>
       <c r="B152">
-        <v>1.4642369677837053</v>
+        <v>1.5119258044786363</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>151.63405215653205</v>
+        <v>151.53963964168634</v>
       </c>
       <c r="B153">
-        <v>1.4255428382670345</v>
+        <v>1.4642369677837053</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>152.057026248044</v>
+        <v>151.63405215653205</v>
       </c>
       <c r="B154">
-        <v>1.2797212245138923</v>
+        <v>1.4255428382670345</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>151.71628760284298</v>
+        <v>152.057026248044</v>
       </c>
       <c r="B155">
-        <v>1.5188518448694737</v>
+        <v>1.2797212245138923</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>152.41790935957746</v>
+        <v>151.71628760284298</v>
       </c>
       <c r="B156">
-        <v>1.1693192978715246</v>
+        <v>1.5188518448694737</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>151.83759149576869</v>
+        <v>152.41790935957746</v>
       </c>
       <c r="B157">
-        <v>1.4823531032278225</v>
+        <v>1.1693192978715246</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>151.48242449017309</v>
+        <v>151.83759149576869</v>
       </c>
       <c r="B158">
-        <v>1.6911257195741172</v>
+        <v>1.4823531032278225</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>152.02155245364185</v>
+        <v>151.48242449017309</v>
       </c>
       <c r="B159">
-        <v>1.4571137197716553</v>
+        <v>1.6911257195741172</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>151.77757749591933</v>
+        <v>152.02155245364185</v>
       </c>
       <c r="B160">
-        <v>1.5984385852066794</v>
+        <v>1.4571137197716553</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>151.76047606557248</v>
+        <v>151.77757749591933</v>
       </c>
       <c r="B161">
-        <v>1.6537037772255161</v>
+        <v>1.5984385852066794</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>152.80821122129285</v>
+        <v>151.76047606557248</v>
       </c>
       <c r="B162">
-        <v>1.1327408172493136</v>
+        <v>1.6537037772255161</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>152.46313788122708</v>
+        <v>152.80821122129285</v>
       </c>
       <c r="B163">
-        <v>1.3514121371768226</v>
+        <v>1.1327408172493136</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>152.48278423953474</v>
+        <v>152.46313788122708</v>
       </c>
       <c r="B164">
-        <v>1.3774510095555001</v>
+        <v>1.3514121371768226</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>152.11164650498799</v>
+        <v>152.48278423953474</v>
       </c>
       <c r="B165">
-        <v>1.5822620092752828</v>
+        <v>1.3774510095555001</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>152.47607016169786</v>
+        <v>152.11164650498799</v>
       </c>
       <c r="B166">
-        <v>1.4120069779732916</v>
+        <v>1.5822620092752828</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>153.02221301907684</v>
+        <v>152.47607016169786</v>
       </c>
       <c r="B167">
-        <v>1.1527377044930773</v>
+        <v>1.4120069779732916</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>152.62680821197409</v>
+        <v>153.02221301907684</v>
       </c>
       <c r="B168">
-        <v>1.362362895664603</v>
+        <v>1.1527377044930773</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>152.53317908640085</v>
+        <v>152.62680821197409</v>
       </c>
       <c r="B169">
-        <v>1.4475207290334851</v>
+        <v>1.362362895664603</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>153.21712034588384</v>
+        <v>152.53317908640085</v>
       </c>
       <c r="B170">
-        <v>1.1517765216903797</v>
+        <v>1.4475207290334851</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>152.68073539194538</v>
+        <v>153.21712034588384</v>
       </c>
       <c r="B171">
-        <v>1.4479474361257161</v>
+        <v>1.1517765216903797</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>152.35915611172027</v>
+        <v>152.68073539194538</v>
       </c>
       <c r="B172">
-        <v>1.6546855660915156</v>
+        <v>1.4479474361257161</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>153.11028602912725</v>
+        <v>152.35915611172027</v>
       </c>
       <c r="B173">
-        <v>1.3016077224437197</v>
+        <v>1.6546855660915156</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>152.51706586057063</v>
+        <v>153.11028602912725</v>
       </c>
       <c r="B174">
-        <v>1.6009308077830724</v>
+        <v>1.3016077224437197</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>151.53589312147832</v>
+        <v>152.51706586057063</v>
       </c>
       <c r="B175">
-        <v>2.0930373863968867</v>
+        <v>1.6009308077830724</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>153.23298690956312</v>
+        <v>151.53589312147832</v>
       </c>
       <c r="B176">
-        <v>1.2729772415321321</v>
+        <v>2.0930373863968867</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>152.24361808155751</v>
+        <v>153.23298690956312</v>
       </c>
       <c r="B177">
-        <v>1.7726373581135562</v>
+        <v>1.2729772415321321</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>153.17184938237324</v>
+        <v>152.24361808155751</v>
       </c>
       <c r="B178">
-        <v>1.4331587572283695</v>
+        <v>1.7726373581135562</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>152.22256787545106</v>
+        <v>153.17184938237324</v>
       </c>
       <c r="B179">
-        <v>1.9559145089756527</v>
+        <v>1.4331587572283695</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>153.35621582059591</v>
+        <v>152.22256787545106</v>
       </c>
       <c r="B180">
-        <v>1.4548947521574433</v>
+        <v>1.9559145089756527</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>153.69067851370394</v>
+        <v>153.35621582059591</v>
       </c>
       <c r="B181">
-        <v>1.2931666406117159</v>
+        <v>1.4548947521574433</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>153.18703867019249</v>
+        <v>153.69067851370394</v>
       </c>
       <c r="B182">
-        <v>1.5990795868373198</v>
+        <v>1.2931666406117159</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>153.20896882864204</v>
+        <v>153.18703867019249</v>
       </c>
       <c r="B183">
-        <v>1.7007546010919015</v>
+        <v>1.5990795868373198</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>153.49227494726034</v>
+        <v>153.20896882864204</v>
       </c>
       <c r="B184">
-        <v>1.6496144661636976</v>
+        <v>1.7007546010919015</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>153.32829226711439</v>
+        <v>153.49227494726034</v>
       </c>
       <c r="B185">
-        <v>1.8048398759924851</v>
+        <v>1.6496144661636976</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>153.1547240847801</v>
+        <v>153.32829226711439</v>
       </c>
       <c r="B186">
-        <v>1.9244497641563072</v>
+        <v>1.8048398759924851</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>154.13972682664104</v>
+        <v>153.1547240847801</v>
       </c>
       <c r="B187">
-        <v>1.5474247886852197</v>
+        <v>1.9244497641563072</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>154.67456392634125</v>
+        <v>154.13972682664104</v>
       </c>
       <c r="B188">
-        <v>1.4155263650198862</v>
+        <v>1.5474247886852197</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>154.32647918792557</v>
+        <v>154.67456392634125</v>
       </c>
       <c r="B189">
-        <v>1.5897134399261006</v>
+        <v>1.4155263650198862</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>154.23631521747296</v>
+        <v>154.32647918792557</v>
       </c>
       <c r="B190">
-        <v>1.6409337708866474</v>
+        <v>1.5897134399261006</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>154.22884750958943</v>
+        <v>154.23631521747296</v>
       </c>
       <c r="B191">
-        <v>1.7319169471393678</v>
+        <v>1.6409337708866474</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>153.98392050964546</v>
+        <v>154.22884750958943</v>
       </c>
       <c r="B192">
-        <v>1.9086505467651165</v>
+        <v>1.7319169471393678</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>155.35569083266361</v>
+        <v>153.98392050964546</v>
       </c>
       <c r="B193">
-        <v>1.2354945531573804</v>
+        <v>1.9086505467651165</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>155.26350312820307</v>
+        <v>155.35569083266361</v>
       </c>
       <c r="B194">
-        <v>1.3032588490845285</v>
+        <v>1.2354945531573804</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>155.21520982754114</v>
+        <v>155.26350312820307</v>
       </c>
       <c r="B195">
-        <v>1.4099658013762308</v>
+        <v>1.3032588490845285</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>155.17911661745816</v>
+        <v>155.21520982754114</v>
       </c>
       <c r="B196">
-        <v>1.5007924269355328</v>
+        <v>1.4099658013762308</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>155.75902284627483</v>
+        <v>155.17911661745816</v>
       </c>
       <c r="B197">
-        <v>1.2286361523691767</v>
+        <v>1.5007924269355328</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>155.70075750432954</v>
+        <v>155.75902284627483</v>
       </c>
       <c r="B198">
-        <v>1.4021254757605277</v>
+        <v>1.2286361523691767</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>155.56057137361873</v>
+        <v>155.70075750432954</v>
       </c>
       <c r="B199">
-        <v>1.489605644318047</v>
+        <v>1.4021254757605277</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>154.9177676298828</v>
+        <v>155.56057137361873</v>
       </c>
       <c r="B200">
-        <v>1.8432470193155552</v>
+        <v>1.489605644318047</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>155.62117463345612</v>
+        <v>154.9177676298828</v>
       </c>
       <c r="B201">
-        <v>1.5886881419778973</v>
+        <v>1.8432470193155552</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>156.31376494106061</v>
+        <v>155.62117463345612</v>
       </c>
       <c r="B202">
-        <v>1.2488202180106782</v>
+        <v>1.5886881419778973</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>156.08552235966701</v>
+        <v>156.31376494106061</v>
       </c>
       <c r="B203">
-        <v>1.3927324472961971</v>
+        <v>1.2488202180106782</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>155.70303548720236</v>
+        <v>156.08552235966701</v>
       </c>
       <c r="B204">
-        <v>1.6191670130258018</v>
+        <v>1.3927324472961971</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>156.93930391080241</v>
+        <v>155.70303548720236</v>
       </c>
       <c r="B205">
-        <v>1.0695900255862938</v>
+        <v>1.6191670130258018</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>156.59109583892715</v>
+        <v>156.93930391080241</v>
       </c>
       <c r="B206">
-        <v>1.2530315715568605</v>
+        <v>1.0695900255862938</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>156.04340591737491</v>
+        <v>156.59109583892715</v>
       </c>
       <c r="B207">
-        <v>1.5446600943843691</v>
+        <v>1.2530315715568605</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>155.87327285247227</v>
+        <v>156.04340591737491</v>
       </c>
       <c r="B208">
-        <v>1.6640273752502281</v>
+        <v>1.5446600943843691</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>156.79849288655998</v>
+        <v>155.87327285247227</v>
       </c>
       <c r="B209">
-        <v>1.3255893204367482</v>
+        <v>1.6640273752502281</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>156.95473288144615</v>
+        <v>156.79849288655998</v>
       </c>
       <c r="B210">
-        <v>1.6609553265552677</v>
+        <v>1.3255893204367482</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>157.16882316944157</v>
+        <v>156.95473288144615</v>
       </c>
       <c r="B211">
-        <v>1.5936096605287844</v>
+        <v>1.6609553265552677</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>156.96164003264573</v>
+        <v>157.16882316944157</v>
       </c>
       <c r="B212">
-        <v>1.8373285305637665</v>
+        <v>1.5936096605287844</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>157.54642874106949</v>
+        <v>156.96164003264573</v>
       </c>
       <c r="B213">
-        <v>1.6018372163588595</v>
+        <v>1.8373285305637665</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>157.40747210574557</v>
+        <v>157.54642874106949</v>
       </c>
       <c r="B214">
-        <v>1.6717958503537886</v>
+        <v>1.6018372163588595</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>156.35363749860136</v>
+        <v>157.40747210574557</v>
       </c>
       <c r="B215">
-        <v>2.2377810487685252</v>
+        <v>1.6717958503537886</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>159.02597027752211</v>
+        <v>156.35363749860136</v>
       </c>
       <c r="B216">
-        <v>1.1177084658372536</v>
+        <v>2.2377810487685252</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>158.78624600584908</v>
+        <v>159.02597027752211</v>
       </c>
       <c r="B217">
-        <v>1.3146114367464605</v>
+        <v>1.1177084658372536</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>158.58284180088435</v>
+        <v>158.78624600584908</v>
       </c>
       <c r="B218">
-        <v>1.5623826942107968</v>
+        <v>1.3146114367464605</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>159.36249856475126</v>
+        <v>158.58284180088435</v>
       </c>
       <c r="B219">
-        <v>1.314214275210162</v>
+        <v>1.5623826942107968</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>159.58216257240363</v>
+        <v>159.36249856475126</v>
       </c>
       <c r="B220">
-        <v>1.2172091247917649</v>
+        <v>1.314214275210162</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>157.70040338989159</v>
+        <v>159.58216257240363</v>
       </c>
       <c r="B221">
-        <v>2.3007683309118505</v>
+        <v>1.2172091247917649</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>159.73467589071294</v>
+        <v>157.70040338989159</v>
       </c>
       <c r="B222">
-        <v>1.3191835030433197</v>
+        <v>2.3007683309118505</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>159.48374785694429</v>
+        <v>159.73467589071294</v>
       </c>
       <c r="B223">
-        <v>1.5969896605697897</v>
+        <v>1.3191835030433197</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>159.48177135276208</v>
+        <v>159.48374785694429</v>
       </c>
       <c r="B224">
-        <v>1.6247092938502874</v>
+        <v>1.5969896605697897</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>158.99124088562655</v>
+        <v>159.48177135276208</v>
       </c>
       <c r="B225">
-        <v>1.9027678514207196</v>
+        <v>1.6247092938502874</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>159.4690129486502</v>
+        <v>158.99124088562655</v>
       </c>
       <c r="B226">
-        <v>1.8825310871633434</v>
+        <v>1.9027678514207196</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>160.32115474098475</v>
+        <v>159.4690129486502</v>
       </c>
       <c r="B227">
-        <v>1.6046652072914185</v>
+        <v>1.8825310871633434</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>160.60032928254688</v>
+        <v>160.32115474098475</v>
       </c>
       <c r="B228">
-        <v>1.6467202631938278</v>
+        <v>1.6046652072914185</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>161.3287819286802</v>
+        <v>160.60032928254688</v>
       </c>
       <c r="B229">
-        <v>1.5525094618615896</v>
+        <v>1.6467202631938278</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>160.28425350575719</v>
+        <v>161.3287819286802</v>
       </c>
       <c r="B230">
-        <v>2.1329170060900537</v>
+        <v>1.5525094618615896</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>162.07838863929837</v>
+        <v>160.28425350575719</v>
       </c>
       <c r="B231">
-        <v>1.2919325597776208</v>
+        <v>2.1329170060900537</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>161.90073004687019</v>
+        <v>162.07838863929837</v>
       </c>
       <c r="B232">
-        <v>1.4427056387671371</v>
+        <v>1.2919325597776208</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>162.29818484742177</v>
+        <v>161.90073004687019</v>
       </c>
       <c r="B233">
-        <v>1.4037716339443733</v>
+        <v>1.4427056387671371</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>162.86680895562532</v>
+        <v>162.29818484742177</v>
       </c>
       <c r="B234">
-        <v>1.2950928735096312</v>
+        <v>1.4037716339443733</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>162.26382139333359</v>
+        <v>162.86680895562532</v>
       </c>
       <c r="B235">
-        <v>1.7026204811149057</v>
+        <v>1.2950928735096312</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>163.43206822105529</v>
+        <v>162.26382139333359</v>
       </c>
       <c r="B236">
-        <v>1.2510586231942113</v>
+        <v>1.7026204811149057</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>163.73773285024475</v>
+        <v>163.43206822105529</v>
       </c>
       <c r="B237">
-        <v>1.5357112597664013</v>
+        <v>1.2510586231942113</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>164.16715919646035</v>
+        <v>163.73773285024475</v>
       </c>
       <c r="B238">
-        <v>1.4780584133892205</v>
+        <v>1.5357112597664013</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>165.05511617232014</v>
+        <v>164.16715919646035</v>
       </c>
       <c r="B239">
-        <v>1.1972902084314541</v>
+        <v>1.4780584133892205</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>165.39091565868864</v>
+        <v>165.05511617232014</v>
       </c>
       <c r="B240">
-        <v>1.5718153563413182</v>
+        <v>1.1972902084314541</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>166.08724634189034</v>
+        <v>165.39091565868864</v>
       </c>
       <c r="B241">
-        <v>1.7159068268047406</v>
+        <v>1.5718153563413182</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>167.68064311877234</v>
+        <v>166.08724634189034</v>
       </c>
       <c r="B242">
-        <v>1.5053264471597458</v>
+        <v>1.7159068268047406</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>167.43617099884369</v>
+        <v>167.68064311877234</v>
       </c>
       <c r="B243">
-        <v>1.846068067287959</v>
+        <v>1.5053264471597458</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>169.63744861520328</v>
+        <v>167.43617099884369</v>
       </c>
       <c r="B244">
-        <v>1.583259180886003</v>
+        <v>1.846068067287959</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>169.09378780068877</v>
+        <v>169.63744861520328</v>
       </c>
       <c r="B245">
-        <v>2.0172969843390121</v>
+        <v>1.583259180886003</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>170.67612926408145</v>
+        <v>169.09378780068877</v>
       </c>
       <c r="B246">
-        <v>1.5362391446189889</v>
+        <v>2.0172969843390121</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>170.18729826004531</v>
+        <v>170.67612926408145</v>
       </c>
       <c r="B247">
-        <v>1.7890313872659789</v>
+        <v>1.5362391446189889</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>170.50479194196475</v>
+        <v>170.18729826004531</v>
       </c>
       <c r="B248">
-        <v>1.8698072397366303</v>
+        <v>1.7890313872659789</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>170.39079139444854</v>
+        <v>170.50479194196475</v>
       </c>
       <c r="B249">
-        <v>2.0067416719784745</v>
+        <v>1.8698072397366303</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>171.50321051515888</v>
+        <v>170.39079139444854</v>
       </c>
       <c r="B250">
-        <v>1.4867732802834297</v>
+        <v>2.0067416719784745</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>172.7662490092419</v>
+        <v>171.50321051515888</v>
       </c>
       <c r="B251">
-        <v>1.7541942220016438</v>
+        <v>1.4867732802834297</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>173.60380420367676</v>
+        <v>172.7662490092419</v>
       </c>
       <c r="B252">
-        <v>2.0617815243114705</v>
+        <v>1.7541942220016438</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>178.54105942886832</v>
+        <v>173.60380420367676</v>
       </c>
       <c r="B253">
-        <v>1.6561514046516379</v>
+        <v>2.0617815243114705</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>178.66208643904108</v>
+        <v>178.54105942886832</v>
       </c>
       <c r="B254">
-        <v>2.2335377753582293</v>
+        <v>1.6561514046516379</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>191.75640744682644</v>
+        <v>178.66208643904108</v>
       </c>
       <c r="B255">
-        <v>5.9759440459537956</v>
+        <v>2.2335377753582293</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>201.67375884641811</v>
+        <v>191.75640744682644</v>
       </c>
       <c r="B256">
-        <v>3.6775810011602772</v>
+        <v>5.9759440459537956</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>212.81931241381093</v>
+        <v>201.67375884641811</v>
       </c>
       <c r="B257">
-        <v>2.5472500869591244</v>
+        <v>3.6775810011602772</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>224.28557292539364</v>
+        <v>212.81931241381093</v>
       </c>
       <c r="B258">
-        <v>2.3030687450055893</v>
+        <v>2.5472500869591244</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>227.46008466948916</v>
+        <v>224.28557292539364</v>
       </c>
       <c r="B259">
-        <v>2.1834404121802891</v>
+        <v>2.3030687450055893</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>235.53312315762625</v>
+        <v>227.46008466948916</v>
       </c>
       <c r="B260">
-        <v>2.2980028076101888</v>
+        <v>2.1834404121802891</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>239.09958337972438</v>
+        <v>235.53312315762625</v>
       </c>
       <c r="B261">
-        <v>2.019032243041849</v>
+        <v>2.2980028076101888</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>256.96066383059951</v>
+        <v>239.09958337972438</v>
       </c>
       <c r="B262">
-        <v>2.1034501595639057</v>
+        <v>2.019032243041849</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>262.20888996901442</v>
+        <v>256.96066383059951</v>
       </c>
       <c r="B263">
-        <v>3.0245009076217002</v>
+        <v>2.1034501595639057</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>273.67109425726721</v>
+        <v>262.20888996901442</v>
       </c>
       <c r="B264">
-        <v>2.6561899065164027</v>
+        <v>3.0245009076217002</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>275.37295523778874</v>
+        <v>273.67109425726721</v>
       </c>
       <c r="B265">
-        <v>2.4219145302692198</v>
+        <v>2.6561899065164027</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>294.27091405649674</v>
+        <v>275.37295523778874</v>
       </c>
       <c r="B266">
-        <v>4.5925455509925825</v>
+        <v>2.4219145302692198</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>335.85713999835724</v>
+        <v>294.27091405649674</v>
       </c>
       <c r="B267">
-        <v>2.8726610993643646</v>
+        <v>4.5925455509925825</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>388.46701713156898</v>
+        <v>335.85713999835724</v>
       </c>
       <c r="B268">
-        <v>3.6358973115567608</v>
+        <v>2.8726610993643646</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269">
-        <v>387.33179710351641</v>
+        <v>388.46701713156898</v>
       </c>
       <c r="B269">
-        <v>4.5835226657279975</v>
+        <v>3.6358973115567608</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>439.17706392317046</v>
+        <v>387.33179710351641</v>
       </c>
       <c r="B270">
-        <v>3.2057034156466955</v>
+        <v>4.5835226657279975</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271">
-        <v>540.58599141657749</v>
+        <v>439.17706392317046</v>
       </c>
       <c r="B271">
-        <v>4.8616579113443663</v>
+        <v>3.2057034156466955</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>582.79605450854478</v>
+        <v>540.58599141657749</v>
       </c>
       <c r="B272">
-        <v>3.9090574069419972</v>
+        <v>4.8616579113443663</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>623.02248637067657</v>
+        <v>582.79605450854478</v>
       </c>
       <c r="B273">
-        <v>5.2672620423722378</v>
+        <v>3.9090574069419972</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>690.1388933873219</v>
+        <v>623.02248637067657</v>
       </c>
       <c r="B274">
-        <v>8.2817245304490257</v>
+        <v>5.2672620423722378</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>1006.6378651873765</v>
+        <v>690.1388933873219</v>
       </c>
       <c r="B275">
-        <v>11.798218709077616</v>
+        <v>8.2817245304490257</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>988.80823533645253</v>
+        <v>1006.6378651873765</v>
       </c>
       <c r="B276">
-        <v>23.060352869355313</v>
+        <v>11.798218709077616</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277">
-        <v>1122.7744519432795</v>
+        <v>988.80823533645253</v>
       </c>
       <c r="B277">
-        <v>12.195064085204649</v>
+        <v>23.060352869355313</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278">
-        <v>1125.5534916030349</v>
+        <v>1122.7744519432795</v>
       </c>
       <c r="B278">
-        <v>15.500615481558611</v>
+        <v>12.195064085204649</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>1145.0502950647733</v>
+        <v>1125.5534916030349</v>
       </c>
       <c r="B279">
-        <v>13.838047861293489</v>
+        <v>15.500615481558611</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>1163.4184540447641</v>
+        <v>1145.0502950647733</v>
       </c>
       <c r="B280">
-        <v>12.415643857519967</v>
+        <v>13.838047861293489</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>1196.072516116772</v>
+        <v>1163.4184540447641</v>
       </c>
       <c r="B281">
-        <v>11.468001796416274</v>
+        <v>12.415643857519967</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>1312.7493466820379</v>
+        <v>1196.072516116772</v>
       </c>
       <c r="B282">
-        <v>11.02397572604184</v>
+        <v>11.468001796416274</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283">
-        <v>1334.7156038802268</v>
+        <v>1312.7493466820379</v>
       </c>
       <c r="B283">
-        <v>12.791897057305732</v>
+        <v>11.02397572604184</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284">
-        <v>1373.6263246974656</v>
+        <v>1334.7156038802268</v>
       </c>
       <c r="B284">
-        <v>13.355227796717259</v>
+        <v>12.791897057305732</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285">
-        <v>1390.0962853176304</v>
+        <v>1373.6263246974656</v>
       </c>
       <c r="B285">
-        <v>14.13669083251591</v>
+        <v>13.355227796717259</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286">
-        <v>1418.1470522524003</v>
+        <v>1390.0962853176304</v>
       </c>
       <c r="B286">
-        <v>11.197446172536161</v>
+        <v>14.13669083251591</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287">
-        <v>1447.4171510549816</v>
+        <v>1418.1470522524003</v>
       </c>
       <c r="B287">
-        <v>8.7694499762285432</v>
+        <v>11.197446172536161</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288">
-        <v>1853.7609892800056</v>
+        <v>1447.4171510549816</v>
       </c>
       <c r="B288">
-        <v>10.763279854823054</v>
+        <v>8.7694499762285432</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289">
-        <v>1864.81137129994</v>
+        <v>1853.7609892800056</v>
       </c>
       <c r="B289">
-        <v>10.658607406877422</v>
+        <v>10.763279854823054</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290">
-        <v>2384.5919860784093</v>
+        <v>1864.81137129994</v>
       </c>
       <c r="B290">
-        <v>9.9762973732349565</v>
+        <v>10.658607406877422</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291">
-        <v>2587.052947599117</v>
+        <v>2384.5919860784093</v>
       </c>
       <c r="B291">
-        <v>11.274755807121437</v>
+        <v>9.9762973732349565</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292">
-        <v>130.95625401884504</v>
+        <v>2587.052947599117</v>
       </c>
       <c r="B292">
-        <v>1.1880039912108487</v>
+        <v>11.274755807121437</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293">
-        <v>131.53601091923105</v>
+        <v>130.95625401884504</v>
       </c>
       <c r="B293">
-        <v>1.1474144525136865</v>
+        <v>1.1880039912108487</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294">
-        <v>131.95373156562073</v>
+        <v>131.53601091923105</v>
       </c>
       <c r="B294">
-        <v>1.0774246814475674</v>
+        <v>1.1474144525136865</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295">
-        <v>132.08845952557513</v>
+        <v>131.95373156562073</v>
       </c>
       <c r="B295">
-        <v>1.0674303925576965</v>
+        <v>1.0774246814475674</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296">
-        <v>131.76149176202568</v>
+        <v>132.08845952557513</v>
       </c>
       <c r="B296">
-        <v>1.2435332023096493</v>
+        <v>1.0674303925576965</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297">
-        <v>132.03490131965063</v>
+        <v>131.76149176202568</v>
       </c>
       <c r="B297">
-        <v>1.1091231568702966</v>
+        <v>1.2435332023096493</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298">
-        <v>132.13021424280603</v>
+        <v>132.03490131965063</v>
       </c>
       <c r="B298">
-        <v>1.0623724919030764</v>
+        <v>1.1091231568702966</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299">
-        <v>131.87459367074663</v>
+        <v>132.13021424280603</v>
       </c>
       <c r="B299">
-        <v>1.2030918944449382</v>
+        <v>1.0623724919030764</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300">
-        <v>132.21704495264012</v>
+        <v>131.87459367074663</v>
       </c>
       <c r="B300">
-        <v>1.0560250547544996</v>
+        <v>1.2030918944449382</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301">
-        <v>131.6938724396669</v>
+        <v>132.21704495264012</v>
       </c>
       <c r="B301">
-        <v>1.4590119116143399</v>
+        <v>1.0560250547544996</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302">
-        <v>132.80504600235341</v>
+        <v>131.6938724396669</v>
       </c>
       <c r="B302">
-        <v>1.0318873246717146</v>
+        <v>1.4590119116143399</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303">
-        <v>132.62598665015415</v>
+        <v>132.80504600235341</v>
       </c>
       <c r="B303">
-        <v>1.1405892979106511</v>
+        <v>1.0318873246717146</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304">
-        <v>132.15991517735083</v>
+        <v>132.62598665015415</v>
       </c>
       <c r="B304">
-        <v>1.4452471323449458</v>
+        <v>1.1405892979106511</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305">
-        <v>132.70656812473962</v>
+        <v>132.15991517735083</v>
       </c>
       <c r="B305">
-        <v>1.383762511450044</v>
+        <v>1.4452471323449458</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306">
-        <v>133.40730537971342</v>
+        <v>132.70656812473962</v>
       </c>
       <c r="B306">
-        <v>1.0373790271613927</v>
+        <v>1.383762511450044</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307">
-        <v>133.51370725089836</v>
+        <v>133.40730537971342</v>
       </c>
       <c r="B307">
-        <v>1.001282889110982</v>
+        <v>1.0373790271613927</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308">
-        <v>132.88876797775208</v>
+        <v>133.51370725089836</v>
       </c>
       <c r="B308">
-        <v>1.3412275656065447</v>
+        <v>1.001282889110982</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309">
-        <v>133.22517334998562</v>
+        <v>132.88876797775208</v>
       </c>
       <c r="B309">
-        <v>1.2153724840423905</v>
+        <v>1.3412275656065447</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310">
-        <v>133.10069935206121</v>
+        <v>133.22517334998562</v>
       </c>
       <c r="B310">
-        <v>1.3908618487605793</v>
+        <v>1.2153724840423905</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311">
-        <v>133.5745875921323</v>
+        <v>133.10069935206121</v>
       </c>
       <c r="B311">
-        <v>1.1764768804020633</v>
+        <v>1.3908618487605793</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312">
-        <v>133.42121698276173</v>
+        <v>133.5745875921323</v>
       </c>
       <c r="B312">
-        <v>1.2591834697337276</v>
+        <v>1.1764768804020633</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313">
-        <v>133.5919003471887</v>
+        <v>133.42121698276173</v>
       </c>
       <c r="B313">
-        <v>1.2027451033588221</v>
+        <v>1.2591834697337276</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314">
+        <v>133.5919003471887</v>
+      </c>
+      <c r="B314">
+        <v>1.2027451033588221</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315">
         <v>133.27362407673104</v>
       </c>
-      <c r="B314">
+      <c r="B315">
         <v>1.3760034374096932</v>
       </c>
     </row>
